--- a/biology/Médecine/Spondylodiscite/Spondylodiscite.xlsx
+++ b/biology/Médecine/Spondylodiscite/Spondylodiscite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La spondylodiscite, également appelée discospondylite désigne l'infection d'un disque intervertébral et des corps vertébraux adjacents. Il s'agit d'une urgence médicale qui nécessite une prise en charge rapide et une antibiothérapie longue (6 à 12 semaines).
 </t>
@@ -511,7 +523,9 @@
           <t>Signes de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Douleurs inflammatoires du rachis, aggravées par la mobilisation, avec raideur et douleur exquise à la palpation.
 Déformation rachidienne.
@@ -543,7 +557,9 @@
           <t>Mode de contamination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voie hématogène, au décours d'une bactériémie ou d'une septicémie. C'est le mode de contamination le plus fréquent.
 Inoculation directe, au décours d'une ponction lombaire ou d'un geste chirurgical.</t>
@@ -574,9 +590,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve deux pics de fréquence : un lors de l'adolescence et un autre vers 60 ans. On constate également une légère prédominance masculine[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve deux pics de fréquence : un lors de l'adolescence et un autre vers 60 ans. On constate également une légère prédominance masculine.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Bactériologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans plus de 50 % des cas, le germe responsable est un staphylocoque :
 Staphylococcus aureus, surtout en cas de contamination par voie hématogène ;
@@ -642,22 +662,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">La radiologie standard
-On recherche :
+          <t>La radiologie standard</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On recherche :
 le pincement d'un disque ;
 des encoches au niveau des plateaux vertébraux en regard du disque ;
-un abcès au niveau des parties molles (image en fuseau).
-Le scanner (avec injection)
-Effectué de façon systématique pour faire le bilan complet des lésions et/ou pour faire une ponction de l'abcès guidée par scanner.
-Outre les signes observés en radiologie standard, il existe une hypodensité discale évocatrice. Il est plus sensible que la radiographie standard.
-La médecine nucléaire
-Un foyer de fixation anormal visible à la scintigraphie osseuse et confirmé avec la scintigraphie au Gallium 67 peut permettre de mettre en évidence la présence de cette infection.
-L'IRM
-Effectué lorsque la scintigraphie osseuse montre un foyer de fixation, mais que les radiologies standards sont normales (souvent en début de maladie).
-On recherches les mêmes signes qu'en radiologie standard.
-Analyse bactériologique de l'abcès
-Quel que soit le germe, les signes sont les mêmes. L'analyse bactériologique permettra d'adapter les traitements en fonction du germe trouvé.
-</t>
+un abcès au niveau des parties molles (image en fuseau).</t>
         </is>
       </c>
     </row>
@@ -682,10 +696,162 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Examens et analyses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le scanner (avec injection)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Effectué de façon systématique pour faire le bilan complet des lésions et/ou pour faire une ponction de l'abcès guidée par scanner.
+Outre les signes observés en radiologie standard, il existe une hypodensité discale évocatrice. Il est plus sensible que la radiographie standard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Spondylodiscite</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spondylodiscite</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Examens et analyses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La médecine nucléaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un foyer de fixation anormal visible à la scintigraphie osseuse et confirmé avec la scintigraphie au Gallium 67 peut permettre de mettre en évidence la présence de cette infection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Spondylodiscite</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spondylodiscite</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Examens et analyses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L'IRM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Effectué lorsque la scintigraphie osseuse montre un foyer de fixation, mais que les radiologies standards sont normales (souvent en début de maladie).
+On recherches les mêmes signes qu'en radiologie standard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Spondylodiscite</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spondylodiscite</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Examens et analyses</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Analyse bactériologique de l'abcès</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quel que soit le germe, les signes sont les mêmes. L'analyse bactériologique permettra d'adapter les traitements en fonction du germe trouvé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Spondylodiscite</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spondylodiscite</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Évolution de la maladie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Un corset est proposé pour immobiliser les vertèbres et les disques atteints durant le traitement antibiotique. Il a principalement un rôle antalgique. 
 S'il n'y pas de traitement, il y a formation de « blocs vertébraux ».
